--- a/biology/Zoologie/Érismature_australe/Érismature_australe.xlsx
+++ b/biology/Zoologie/Érismature_australe/Érismature_australe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rismature_australe</t>
+          <t>Érismature_australe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oxyura australis
 L'Érismature australe (Oxyura australis) est une espèce d'oiseaux de la famille des Anatidae endémique d'Australie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rismature_australe</t>
+          <t>Érismature_australe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il mesure de 30 à 35 cm et pèse entre 500 et 1 300 g. Le mâle a un bec d'un bleu ardoise qui devient d'un bleu brillant pendant la période des amours.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rismature_australe</t>
+          <t>Érismature_australe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans le bassin de la Murray River, au Sud-est et à l'extrême sud du continent australien ainsi qu'en Tasmanie
 Il vit dans les étendues d'eau douce.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rismature_australe</t>
+          <t>Érismature_australe</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un canard plongeur qui se nourrit de plantes aquatiques, d'insectes, de crustacés ou de mollusques.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89rismature_australe</t>
+          <t>Érismature_australe</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les couvées sont de 3 à 12 œufs et l'incubation est de 26 à 28 jours. Elle est assurée uniquement par la femelle.
 </t>
